--- a/practice/bayes/utilities_excel.xlsx
+++ b/practice/bayes/utilities_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="27795" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="utilities" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +430,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -591,8 +597,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -646,6 +654,293 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>utilities!$AC$215:$AZ$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.09265182264126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4379805048474199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0235072336376598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4247441117075601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31069731790443988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2820124227027199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.97939660176981036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0597852921701101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.1565063264401907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.61049774910816001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31598864110403024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.88094877493444024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9129889101788597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7959999325249001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.7945633395870697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39356332444229025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0876481810201097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.12751896532193996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4720504655775999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36221404714896988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7563496851271001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.62261426316867</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.83467737631635952</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.88407538338733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>utilities!$AC$216:$AZ$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.79775104900000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2859213876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93445000970000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44638667100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8546196900000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4038661440000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.7741439042999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9949889426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.45931006369999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3928590321000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9816668692999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.924325387</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.90978124490000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3392250639999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3818525034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1520150752</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1456145889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.6345604191000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3572838869999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99279556670000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.3206946266999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2390831420000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.96761112979999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8271040227000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="38179584"/>
+        <c:axId val="38177792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="38179584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38177792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38177792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38179584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY201"/>
+  <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" topLeftCell="AC184" workbookViewId="0">
+      <selection activeCell="AV206" sqref="AV206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1314,78 @@
       <c r="AA1" t="s">
         <v>24</v>
       </c>
+      <c r="AB1" s="1">
+        <v>-3.2973769107000002</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.14971134280000001</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.81652397710000002</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>-0.67123981420000001</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>-3.2304221861000002</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>-2.8885453677999999</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>-5.5160654095000003</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>-4.9732059206999999</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>-5.2389147421000004</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.4118940015</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>5.4545159701000001</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.59127091409999999</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.77634979900000001</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2.6181606132000002</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0.29171479830000002</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>1.3977759887000001</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>3.6946827042999999</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>-0.63059424959999999</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>4.2344893521999998</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>-1.4436631014000001</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>3.2532635248999999</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>1.7884375082999999</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2.4112372075000001</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>-8.2513526797000001</v>
+      </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -37220,7 +37587,157 @@
         <v>-2.5705649856889727</v>
       </c>
     </row>
+    <row r="215" spans="29:52" x14ac:dyDescent="0.25">
+      <c r="AC215">
+        <v>1.09265182264126</v>
+      </c>
+      <c r="AD215">
+        <v>1.4379805048474199</v>
+      </c>
+      <c r="AE215">
+        <v>1.0235072336376598</v>
+      </c>
+      <c r="AF215" s="2">
+        <v>-1.4247441117075601</v>
+      </c>
+      <c r="AG215">
+        <v>0.31069731790443988</v>
+      </c>
+      <c r="AH215">
+        <v>2.2820124227027199</v>
+      </c>
+      <c r="AI215" s="2">
+        <v>-0.97939660176981036</v>
+      </c>
+      <c r="AJ215">
+        <v>1.0597852921701101</v>
+      </c>
+      <c r="AK215" s="2">
+        <v>-3.1565063264401907</v>
+      </c>
+      <c r="AL215">
+        <v>-0.61049774910816001</v>
+      </c>
+      <c r="AM215">
+        <v>0.31598864110403024</v>
+      </c>
+      <c r="AN215">
+        <v>-0.88094877493444024</v>
+      </c>
+      <c r="AO215">
+        <v>-1.9129889101788597</v>
+      </c>
+      <c r="AP215">
+        <v>1.7959999325249001</v>
+      </c>
+      <c r="AQ215">
+        <v>-6.7945633395870697</v>
+      </c>
+      <c r="AR215">
+        <v>0.39356332444229025</v>
+      </c>
+      <c r="AS215">
+        <v>-2.0876481810201097</v>
+      </c>
+      <c r="AT215">
+        <v>-0.12751896532193996</v>
+      </c>
+      <c r="AU215">
+        <v>1.4720504655775999</v>
+      </c>
+      <c r="AV215">
+        <v>0.36221404714896988</v>
+      </c>
+      <c r="AW215">
+        <v>0.7563496851271001</v>
+      </c>
+      <c r="AX215">
+        <v>1.62261426316867</v>
+      </c>
+      <c r="AY215">
+        <v>-0.83467737631635952</v>
+      </c>
+      <c r="AZ215">
+        <v>4.88407538338733</v>
+      </c>
+    </row>
+    <row r="216" spans="29:52" x14ac:dyDescent="0.25">
+      <c r="AC216">
+        <v>0.79775104900000005</v>
+      </c>
+      <c r="AD216">
+        <v>1.2859213876</v>
+      </c>
+      <c r="AE216">
+        <v>0.93445000970000003</v>
+      </c>
+      <c r="AF216" s="2">
+        <v>0.44638667100000001</v>
+      </c>
+      <c r="AG216">
+        <v>-3.8546196900000003E-2</v>
+      </c>
+      <c r="AH216">
+        <v>2.4038661440000002</v>
+      </c>
+      <c r="AI216" s="2">
+        <v>-3.7741439042999998</v>
+      </c>
+      <c r="AJ216">
+        <v>1.9949889426</v>
+      </c>
+      <c r="AK216" s="2">
+        <v>-0.45931006369999999</v>
+      </c>
+      <c r="AL216">
+        <v>-1.3928590321000001</v>
+      </c>
+      <c r="AM216">
+        <v>-1.9816668692999999</v>
+      </c>
+      <c r="AN216">
+        <v>-0.924325387</v>
+      </c>
+      <c r="AO216">
+        <v>-0.90978124490000001</v>
+      </c>
+      <c r="AP216">
+        <v>2.3392250639999999</v>
+      </c>
+      <c r="AQ216">
+        <v>-1.3818525034</v>
+      </c>
+      <c r="AR216">
+        <v>-1.1520150752</v>
+      </c>
+      <c r="AS216">
+        <v>1.1456145889</v>
+      </c>
+      <c r="AT216">
+        <v>-2.6345604191000001</v>
+      </c>
+      <c r="AU216">
+        <v>2.3572838869999999</v>
+      </c>
+      <c r="AV216">
+        <v>0.99279556670000002</v>
+      </c>
+      <c r="AW216">
+        <v>-1.3206946266999999</v>
+      </c>
+      <c r="AX216">
+        <v>2.2390831420000001</v>
+      </c>
+      <c r="AY216">
+        <v>-0.96761112979999997</v>
+      </c>
+      <c r="AZ216">
+        <v>5.8271040227000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>